--- a/shared/ojb-resources-common/src/main/resources/ssp/Incident_Reporting/artifacts/service_model/information_model/IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Incident_Reporting/artifacts/service_model/information_model/IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="2260" yWindow="660" windowWidth="33760" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Citation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="294">
   <si>
     <t>Description</t>
   </si>
@@ -902,6 +902,21 @@
   </si>
   <si>
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:EnforcementUnit[ndexia:EnforcementUnitAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc:PersonAssignedUnitAssociation/nc:OrganizationReference/@s:ref]/j:EnforcementUnitNumberIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>CITATION LOCATION</t>
+  </si>
+  <si>
+    <t>The highway number/street name where the citation was issued</t>
+  </si>
+  <si>
+    <t>The municipality name where the citation was issued.</t>
+  </si>
+  <si>
+    <t>A landmark or milemarker close to where the citation was issued.</t>
+  </si>
+  <si>
+    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityLocation/nc:Location[@s:id=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:CitationIssuedLocationAssociation[inc-ext:CitationReference/@s:ref=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDocument/nc:Document/@s:id]/nc:LocationReference/@s:ref]/nc:LocationAddress/nc:StructuredAddress/nc:LocationCityName</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="534">
+  <cellStyleXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1139,6 +1154,14 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1705,7 +1728,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="534">
+  <cellStyles count="542">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1981,6 +2004,10 @@
     <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
@@ -2235,6 +2262,10 @@
     <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="24"/>
@@ -2538,11 +2569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2685,56 +2716,71 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="70">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="70">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>258</v>
+      <c r="A9" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="112" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2744,1206 +2790,1254 @@
     </row>
     <row r="14" spans="1:6" ht="70">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="70">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>210</v>
-      </c>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="70">
       <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="70">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="70">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="70">
+      <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="112">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:6" ht="112">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="112">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:6" ht="112">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="140">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="112">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="84">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>41444812</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="84">
-      <c r="A22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="140">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>249</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="112">
       <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="84">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41444812</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="84">
+      <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="140">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="112">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D28" s="3">
         <v>8023631111</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="112">
-      <c r="A25" s="3" t="s">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="112">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D29" s="3">
         <v>8023631112</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="8">
-        <v>24014</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="84">
-      <c r="A28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8">
+        <v>24014</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>217</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="70">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A33" s="3" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3">
+        <v>135</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="98">
-      <c r="A36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="112">
-      <c r="A37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="112">
-      <c r="A38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="98">
-      <c r="A39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>201</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="112">
+      <c r="A41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="112">
+      <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="98">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="98">
+      <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="98">
-      <c r="A41" s="3" t="s">
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="98">
+      <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="98">
-      <c r="A42" s="3" t="s">
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="98">
+      <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A43" s="3" t="s">
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3" t="b">
+      <c r="D47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A44" s="6" t="s">
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A48" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="3" t="b">
+      <c r="D48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="17" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" ht="42">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" ht="42">
+      <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" ht="42">
-      <c r="A47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" ht="126">
-      <c r="A48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" ht="126">
+      <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" ht="42">
+      <c r="A55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="3">
-        <v>30</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A54" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="3">
-        <v>40</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A56" s="6" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.2</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A57" s="6" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="3" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D57" s="3">
+        <v>30</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A58" s="6" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="3" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="3">
+        <v>40</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A60" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="3" t="b">
+      <c r="D63" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E63" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="70">
-      <c r="A60" s="7" t="s">
+    <row r="64" spans="1:6" ht="70">
+      <c r="A64" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="2" t="b">
+      <c r="D64" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E64" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="70">
-      <c r="A61" s="7" t="s">
+    <row r="65" spans="1:6" ht="70">
+      <c r="A65" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="2" t="b">
+      <c r="D65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="70">
-      <c r="A62" s="7" t="s">
+    <row r="66" spans="1:6" ht="70">
+      <c r="A66" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="2" t="b">
+      <c r="D66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="70">
-      <c r="A63" s="7" t="s">
+    <row r="67" spans="1:6" ht="70">
+      <c r="A67" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="17" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A65" s="3" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A69" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E69" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" ht="84">
-      <c r="A66" s="6" t="s">
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="84">
+      <c r="A70" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A67" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A68" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" ht="42">
-      <c r="A69" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A70" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A71" s="6" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="9">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="9"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A72" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" ht="42">
+      <c r="A73" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="9">
+        <v>47</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A76" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D76" s="9">
         <v>1197</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E76" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="17" t="s">
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A74" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" ht="42">
-      <c r="A75" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" ht="84">
-      <c r="A76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D76" s="3">
-        <v>12345</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" ht="84">
-      <c r="A77" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="3" customFormat="1" ht="42">
+      <c r="A79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" ht="84">
+      <c r="A80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="3">
+        <v>12345</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" ht="84">
+      <c r="A81" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E82" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="17" t="s">
+    <row r="83" spans="1:6">
+      <c r="A83" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="70">
-      <c r="A80" s="3" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="70">
+      <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="70">
-      <c r="A81" s="2" t="s">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="70">
+      <c r="A85" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="112">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:6" ht="112">
+      <c r="A86" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="112">
-      <c r="A83" s="3" t="s">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="112">
+      <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="126">
-      <c r="A84" s="3" t="s">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="126">
+      <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" ht="112">
-      <c r="A85" s="3" t="s">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="112">
+      <c r="A89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E89" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="17" t="s">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="84">
-      <c r="A87" s="7" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" ht="84">
+      <c r="A91" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="2" t="b">
+      <c r="D91" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E91" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="119" customHeight="1">
-      <c r="A88" s="2" t="s">
+    <row r="92" spans="1:6" ht="119" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>241</v>
       </c>
     </row>
